--- a/biology/Médecine/Prix_Wilder-Penfield/Prix_Wilder-Penfield.xlsx
+++ b/biology/Médecine/Prix_Wilder-Penfield/Prix_Wilder-Penfield.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix Wilder-Penfield est l’un des Prix du Québec décernés annuellement par le gouvernement du Québec. Il couronne l'ensemble de la carrière d'un scientifique dont l'objet de recherche appartient au domaine biomédical. Il est nommé en mémoire de Wilder Penfield.
 </t>
@@ -511,7 +523,9 @@
           <t>Description du prix</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les groupes de disciplines reconnus par ce prix sont les sciences médicales, les sciences naturelles et les sciences de l'ingénierie.
 Les critères d’éligibilité au prix sont :
@@ -552,7 +566,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix doit son nom à Wilder Penfield (1891-1976), neurochirurgien et neurologue de réputation mondiale. Il a fondé l’Institut neurologique de Montréal en 1934 et il a dirigé cet institut pendant 25 ans. Il a aussi grandement contribué au développement des techniques chirurgicales pour le traitement de l’épilepsie et il fut l’un des pionniers dans les travaux de localisation des fonctions du cerveau.
 </t>
@@ -583,7 +599,9 @@
           <t>Lauréats et lauréates[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1993 - Brenda Milner
